--- a/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/怪兽配置_monster.xlsx
+++ b/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/怪兽配置_monster.xlsx
@@ -17,15 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">monster!$D$2:$H$1904</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="75">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="30">
   <si>
     <t>——</t>
     <phoneticPr fontId="13" type="noConversion"/>
@@ -70,263 +67,68 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>1|1|1,1|2|100,1|3|5,1|4|5</t>
+    <t>player_lv</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>1|1|1,1|2|100,1|3|5,1|4|5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|100,1|70003|5,1|70004|5</t>
   </si>
   <si>
-    <t>1|1|1,1|2|100,1|3|5,1|4|5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|200,1|70003|10,1|70004|10</t>
   </si>
   <si>
-    <t>1|1|1,1|2|200,1|3|10,1|4|10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|400,1|70003|200,1|70004|200</t>
   </si>
   <si>
-    <t>1|1|1,1|2|200,1|3|10,1|4|10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|800,1|70003|300,1|70004|300</t>
   </si>
   <si>
-    <t>1|1|1,1|2|400,1|3|200,1|4|200</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|1500,1|70003|500,1|70004|500</t>
   </si>
   <si>
-    <t>1|1|1,1|2|800,1|3|300,1|4|300</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|3000,1|70003|1000,1|70004|1000</t>
   </si>
   <si>
-    <t>1|1|1,1|2|800,1|3|300,1|4|300</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|5000,1|70003|2000,1|70004|2000</t>
   </si>
   <si>
-    <t>1|1|1,1|2|800,1|3|300,1|4|300</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|8000,1|70003|3000,1|70004|3000</t>
   </si>
   <si>
-    <t>1|1|1,1|2|800,1|3|300,1|4|300</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|12000,1|70003|5000,1|70004|5000</t>
   </si>
   <si>
-    <t>1|1|1,1|2|1500,1|3|500,1|4|500</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|15000,1|70003|7000,1|70004|7000</t>
   </si>
   <si>
-    <t>1|1|1,1|2|1500,1|3|500,1|4|500</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|18000,1|70003|10000,1|70004|10000</t>
   </si>
   <si>
-    <t>1|1|1,1|2|1500,1|3|500,1|4|500</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|22000,1|70003|13000,1|70004|13000</t>
   </si>
   <si>
-    <t>1|1|1,1|2|1500,1|3|500,1|4|500</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|25000,1|70003|15000,1|70004|15000</t>
   </si>
   <si>
-    <t>1|1|1,1|2|3000,1|3|1000,1|4|1000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|30000,1|70003|20000,1|70004|20000</t>
   </si>
   <si>
-    <t>1|1|1,1|2|3000,1|3|1000,1|4|1000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|50000,1|70003|30000,1|70004|30000</t>
   </si>
   <si>
-    <t>1|1|1,1|2|3000,1|3|1000,1|4|1000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|70000,1|70003|40000,1|70004|40000</t>
   </si>
   <si>
-    <t>1|1|1,1|2|5000,1|3|2000,1|4|2000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|90000,1|70003|50000,1|70004|50000</t>
   </si>
   <si>
-    <t>1|1|1,1|2|5000,1|3|2000,1|4|2000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|100000,1|70003|70000,1|70004|70000</t>
   </si>
   <si>
-    <t>1|1|1,1|2|5000,1|3|2000,1|4|2000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|130000,1|70003|90000,1|70004|90000</t>
   </si>
   <si>
-    <t>1|1|1,1|2|8000,1|3|3000,1|4|3000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|8000,1|3|3000,1|4|3000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|8000,1|3|3000,1|4|3000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|8000,1|3|3000,1|4|3000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|12000,1|3|5000,1|4|5000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|12000,1|3|5000,1|4|5000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|12000,1|3|5000,1|4|5000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|12000,1|3|5000,1|4|5000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|15000,1|3|7000,1|4|7000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|15000,1|3|7000,1|4|7000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|15000,1|3|7000,1|4|7000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|18000,1|3|10000,1|4|10000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|18000,1|3|10000,1|4|10000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|18000,1|3|10000,1|4|10000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|18000,1|3|10000,1|4|10000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|22000,1|3|13000,1|4|13000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|22000,1|3|13000,1|4|13000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|22000,1|3|13000,1|4|13000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|22000,1|3|13000,1|4|13000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|25000,1|3|15000,1|4|15000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|25000,1|3|15000,1|4|15000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|25000,1|3|15000,1|4|15000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|25000,1|3|15000,1|4|15000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|30000,1|3|20000,1|4|20000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|30000,1|3|20000,1|4|20000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|50000,1|3|30000,1|4|30000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|50000,1|3|30000,1|4|30000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|50000,1|3|30000,1|4|30000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|50000,1|3|30000,1|4|30000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|70000,1|3|40000,1|4|40000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|70000,1|3|40000,1|4|40000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|90000,1|3|50000,1|4|50000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|90000,1|3|50000,1|4|50000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|90000,1|3|50000,1|4|50000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|100000,1|3|70000,1|4|70000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|100000,1|3|70000,1|4|70000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|100000,1|3|70000,1|4|70000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|100000,1|3|70000,1|4|70000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|130000,1|3|90000,1|4|90000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|130000,1|3|90000,1|4|90000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|130000,1|3|90000,1|4|90000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|130000,1|3|90000,1|4|90000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|150000,1|3|110000,1|4|110000</t>
-  </si>
-  <si>
-    <t>1|1|1,1|2|150000,1|3|110000,1|4|110000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|2|150000,1|3|110000,1|4|110000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70001|1,1|70002|150000,1|70003|110000,1|70004|110000</t>
   </si>
 </sst>
 </file>
@@ -988,12 +790,12 @@
   <dimension ref="A1:H1925"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="14"/>
+    <col min="1" max="1" width="13.5" style="14" customWidth="1"/>
     <col min="2" max="3" width="14.375" style="14" customWidth="1"/>
     <col min="4" max="4" width="79.625" style="14" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="14" customWidth="1"/>
@@ -1007,16 +809,16 @@
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="165" customHeight="1">
       <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -1025,16 +827,16 @@
     </row>
     <row r="3" spans="1:8" s="10" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>8</v>
       </c>
       <c r="G3" s="19"/>
     </row>
@@ -1043,13 +845,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1060,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6">
         <v>5</v>
@@ -1077,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="6">
         <v>5</v>
@@ -1094,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="6">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1111,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="6">
         <v>5</v>
@@ -1127,13 +929,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="6">
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" s="5"/>
       <c r="G9" s="21"/>
@@ -1143,13 +945,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="6">
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="21"/>
@@ -1159,13 +961,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="6">
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" s="5"/>
       <c r="G11" s="21"/>
@@ -1175,13 +977,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="6">
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12" s="5"/>
       <c r="G12" s="21"/>
@@ -1191,13 +993,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="6">
         <v>6</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="21"/>
@@ -1207,13 +1009,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="6">
         <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E14" s="5"/>
       <c r="G14" s="21"/>
@@ -1223,13 +1025,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="6">
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E15" s="5"/>
       <c r="G15" s="21"/>
@@ -1239,13 +1041,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="6">
         <v>7</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E16" s="5"/>
       <c r="G16" s="21"/>
@@ -1255,13 +1057,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="6">
         <v>7</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E17" s="5"/>
       <c r="G17" s="21"/>
@@ -1271,13 +1073,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="6">
         <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E18" s="5"/>
       <c r="G18" s="21"/>
@@ -1287,13 +1089,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="6">
         <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E19" s="5"/>
       <c r="G19" s="21"/>
@@ -1303,13 +1105,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="6">
         <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E20" s="5"/>
       <c r="G20" s="21"/>
@@ -1319,13 +1121,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="6">
         <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E21" s="5"/>
       <c r="G21" s="21"/>
@@ -1335,13 +1137,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="6">
         <v>8</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E22" s="5"/>
       <c r="G22" s="21"/>
@@ -1351,17 +1153,17 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="6">
         <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="5"/>
       <c r="G23" s="21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1369,13 +1171,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="6">
         <v>9</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E24" s="5"/>
       <c r="G24" s="21"/>
@@ -1385,13 +1187,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="6">
         <v>9</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E25" s="5"/>
       <c r="G25" s="21"/>
@@ -1401,13 +1203,13 @@
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="6">
         <v>9</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E26" s="5"/>
       <c r="G26" s="21"/>
@@ -1417,13 +1219,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="6">
         <v>9</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E27" s="5"/>
       <c r="G27" s="21"/>
@@ -1433,13 +1235,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="6">
         <v>9</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E28" s="5"/>
       <c r="G28" s="21"/>
@@ -1449,13 +1251,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="6">
         <v>10</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E29" s="5"/>
       <c r="G29" s="21"/>
@@ -1465,13 +1267,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="6">
         <v>10</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E30" s="5"/>
       <c r="G30" s="21"/>
@@ -1481,13 +1283,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="6">
         <v>10</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E31" s="5"/>
       <c r="G31" s="21"/>
@@ -1497,13 +1299,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="6">
         <v>10</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E32" s="5"/>
       <c r="G32" s="21"/>
@@ -1513,13 +1315,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="6">
         <v>10</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E33" s="5"/>
       <c r="G33" s="21"/>
@@ -1529,13 +1331,13 @@
         <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="6">
         <v>11</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E34" s="5"/>
       <c r="G34" s="21"/>
@@ -1545,13 +1347,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="6">
         <v>11</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E35" s="5"/>
       <c r="G35" s="21"/>
@@ -1561,13 +1363,13 @@
         <v>33</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="6">
         <v>11</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E36" s="5"/>
       <c r="G36" s="21"/>
@@ -1577,13 +1379,13 @@
         <v>34</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="6">
         <v>11</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E37" s="5"/>
       <c r="G37" s="21"/>
@@ -1593,13 +1395,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="6">
         <v>11</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E38" s="5"/>
       <c r="G38" s="21"/>
@@ -1609,13 +1411,13 @@
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="6">
         <v>12</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E39" s="5"/>
       <c r="G39" s="21"/>
@@ -1625,13 +1427,13 @@
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="6">
         <v>12</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E40" s="5"/>
       <c r="G40" s="21"/>
@@ -1641,13 +1443,13 @@
         <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="6">
         <v>12</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E41" s="5"/>
       <c r="G41" s="21"/>
@@ -1657,13 +1459,13 @@
         <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="6">
         <v>12</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E42" s="5"/>
       <c r="G42" s="21"/>
@@ -1673,13 +1475,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" s="6">
         <v>12</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E43" s="5"/>
       <c r="G43" s="21"/>
@@ -1689,13 +1491,13 @@
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" s="6">
         <v>13</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E44" s="5"/>
       <c r="G44" s="21"/>
@@ -1705,13 +1507,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" s="6">
         <v>13</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E45" s="5"/>
       <c r="G45" s="21"/>
@@ -1721,13 +1523,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="6">
         <v>13</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E46" s="5"/>
       <c r="G46" s="21"/>
@@ -1737,13 +1539,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="6">
         <v>13</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E47" s="5"/>
       <c r="G47" s="21"/>
@@ -1753,13 +1555,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" s="6">
         <v>13</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E48" s="5"/>
       <c r="G48" s="21"/>
@@ -1769,13 +1571,13 @@
         <v>46</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" s="6">
         <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E49" s="5"/>
       <c r="G49" s="21"/>
@@ -1785,13 +1587,13 @@
         <v>47</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50" s="6">
         <v>14</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E50" s="5"/>
       <c r="G50" s="21"/>
@@ -1801,13 +1603,13 @@
         <v>48</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" s="6">
         <v>14</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E51" s="5"/>
       <c r="G51" s="21"/>
@@ -1817,13 +1619,13 @@
         <v>49</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" s="6">
         <v>14</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E52" s="5"/>
       <c r="G52" s="21"/>
@@ -1833,13 +1635,13 @@
         <v>50</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" s="6">
         <v>14</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E53" s="5"/>
       <c r="G53" s="21"/>
@@ -1849,13 +1651,13 @@
         <v>51</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54" s="6">
         <v>15</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E54" s="5"/>
       <c r="G54" s="21"/>
@@ -1865,13 +1667,13 @@
         <v>52</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" s="6">
         <v>15</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E55" s="5"/>
       <c r="G55" s="21"/>
@@ -1881,13 +1683,13 @@
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" s="6">
         <v>15</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E56" s="5"/>
       <c r="G56" s="21"/>
@@ -1897,13 +1699,13 @@
         <v>54</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" s="6">
         <v>15</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E57" s="5"/>
       <c r="G57" s="21"/>
@@ -1913,13 +1715,13 @@
         <v>55</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58" s="6">
         <v>15</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E58" s="5"/>
       <c r="G58" s="21"/>
@@ -1929,13 +1731,13 @@
         <v>56</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" s="6">
         <v>15</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E59" s="5"/>
       <c r="G59" s="21"/>
@@ -1945,13 +1747,13 @@
         <v>57</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="6">
         <v>15</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E60" s="5"/>
       <c r="G60" s="21"/>
@@ -1961,13 +1763,13 @@
         <v>58</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" s="6">
         <v>15</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E61" s="5"/>
       <c r="G61" s="21"/>
@@ -1977,13 +1779,13 @@
         <v>59</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" s="6">
         <v>15</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E62" s="5"/>
       <c r="G62" s="21"/>
@@ -1993,13 +1795,13 @@
         <v>60</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63" s="6">
         <v>15</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E63" s="5"/>
       <c r="G63" s="21"/>
@@ -2009,13 +1811,13 @@
         <v>61</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C64" s="6">
         <v>15</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E64" s="5"/>
       <c r="G64" s="21"/>
@@ -2025,13 +1827,13 @@
         <v>62</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C65" s="6">
         <v>15</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E65" s="5"/>
       <c r="G65" s="21"/>
@@ -2041,13 +1843,13 @@
         <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66" s="6">
         <v>15</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E66" s="5"/>
       <c r="G66" s="21"/>
@@ -2057,13 +1859,13 @@
         <v>64</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" s="6">
         <v>15</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E67" s="5"/>
       <c r="G67" s="21"/>
@@ -2073,13 +1875,13 @@
         <v>65</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68" s="6">
         <v>15</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E68" s="5"/>
       <c r="G68" s="21"/>
@@ -2089,13 +1891,13 @@
         <v>66</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" s="6">
         <v>15</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E69" s="5"/>
       <c r="G69" s="21"/>
@@ -2105,13 +1907,13 @@
         <v>67</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" s="6">
         <v>15</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E70" s="5"/>
       <c r="G70" s="21"/>
@@ -2121,13 +1923,13 @@
         <v>68</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71" s="6">
         <v>15</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E71" s="5"/>
       <c r="G71" s="21"/>
@@ -2137,13 +1939,13 @@
         <v>69</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C72" s="6">
         <v>15</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E72" s="5"/>
       <c r="G72" s="21"/>
@@ -2153,13 +1955,13 @@
         <v>70</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" s="6">
         <v>15</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E73" s="5"/>
       <c r="G73" s="21"/>
@@ -2169,13 +1971,13 @@
         <v>71</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" s="6">
         <v>15</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E74" s="5"/>
       <c r="G74" s="21"/>
@@ -2185,13 +1987,13 @@
         <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C75" s="6">
         <v>15</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E75" s="5"/>
       <c r="G75" s="21"/>
@@ -2201,13 +2003,13 @@
         <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C76" s="6">
         <v>15</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E76" s="5"/>
       <c r="G76" s="21"/>
@@ -2217,13 +2019,13 @@
         <v>74</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" s="6">
         <v>15</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E77" s="5"/>
       <c r="G77" s="21"/>
@@ -2233,13 +2035,13 @@
         <v>75</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" s="6">
         <v>15</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E78" s="5"/>
       <c r="G78" s="21"/>
@@ -2249,13 +2051,13 @@
         <v>76</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" s="6">
         <v>15</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E79" s="5"/>
       <c r="G79" s="21"/>
@@ -2265,13 +2067,13 @@
         <v>77</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C80" s="6">
         <v>15</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E80" s="5"/>
       <c r="G80" s="21"/>
@@ -2281,13 +2083,13 @@
         <v>78</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" s="6">
         <v>15</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E81" s="5"/>
       <c r="G81" s="21"/>
@@ -2297,13 +2099,13 @@
         <v>79</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C82" s="6">
         <v>15</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E82" s="5"/>
       <c r="G82" s="21"/>
@@ -2313,13 +2115,13 @@
         <v>80</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C83" s="6">
         <v>15</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E83" s="5"/>
       <c r="G83" s="21"/>
@@ -2329,13 +2131,13 @@
         <v>81</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84" s="6">
         <v>15</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E84" s="5"/>
       <c r="G84" s="21"/>
@@ -2345,13 +2147,13 @@
         <v>82</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C85" s="6">
         <v>15</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E85" s="5"/>
       <c r="G85" s="21"/>
@@ -2361,13 +2163,13 @@
         <v>83</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" s="6">
         <v>15</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E86" s="5"/>
       <c r="G86" s="21"/>
@@ -2377,13 +2179,13 @@
         <v>84</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C87" s="6">
         <v>15</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E87" s="5"/>
       <c r="G87" s="21"/>
@@ -2393,13 +2195,13 @@
         <v>85</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" s="6">
         <v>15</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G88" s="22"/>
     </row>
@@ -2408,13 +2210,13 @@
         <v>86</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89" s="6">
         <v>15</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E89" s="5"/>
       <c r="G89" s="21"/>
@@ -2424,13 +2226,13 @@
         <v>87</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C90" s="6">
         <v>15</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E90" s="5"/>
       <c r="G90" s="21"/>
@@ -2440,13 +2242,13 @@
         <v>88</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C91" s="6">
         <v>15</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E91" s="5"/>
       <c r="G91" s="21"/>
@@ -2456,13 +2258,13 @@
         <v>89</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" s="6">
         <v>15</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E92" s="5"/>
       <c r="G92" s="21"/>
@@ -2472,13 +2274,13 @@
         <v>90</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" s="6">
         <v>15</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E93" s="5"/>
       <c r="G93" s="21"/>
@@ -2488,13 +2290,13 @@
         <v>91</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C94" s="6">
         <v>15</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E94" s="5"/>
       <c r="G94" s="21"/>
@@ -2504,13 +2306,13 @@
         <v>92</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95" s="6">
         <v>15</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="E95" s="5"/>
       <c r="G95" s="21"/>
@@ -2520,13 +2322,13 @@
         <v>93</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96" s="6">
         <v>15</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E96" s="5"/>
       <c r="G96" s="21"/>
@@ -2536,13 +2338,13 @@
         <v>94</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97" s="6">
         <v>15</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E97" s="5"/>
       <c r="G97" s="21"/>
@@ -2552,13 +2354,13 @@
         <v>95</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" s="6">
         <v>15</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="E98" s="5"/>
       <c r="G98" s="21"/>
@@ -2568,13 +2370,13 @@
         <v>96</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" s="6">
         <v>15</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E99" s="5"/>
       <c r="G99" s="21"/>
@@ -2584,13 +2386,13 @@
         <v>97</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" s="6">
         <v>15</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E100" s="5"/>
       <c r="G100" s="21"/>
@@ -2600,13 +2402,13 @@
         <v>98</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101" s="6">
         <v>15</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="E101" s="5"/>
       <c r="G101" s="21"/>
@@ -2616,13 +2418,13 @@
         <v>99</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C102" s="6">
         <v>15</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="E102" s="5"/>
       <c r="G102" s="21"/>
@@ -2632,13 +2434,13 @@
         <v>100</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C103" s="6">
         <v>15</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="E103" s="5"/>
       <c r="G103" s="21"/>
